--- a/biology/Médecine/Atopie/Atopie.xlsx
+++ b/biology/Médecine/Atopie/Atopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'atopie est une prédisposition génétique au développement cumulé d'allergies courantes elles-mêmes dites « atopiques » (dermatite atopique, un type d'eczéma ; asthme ; rhinite allergique, qui peut prendre la forme du « rhume des foins » ou d'une sensibilité aux acariens, etc.). Un sujet diagnostiqué avec un syndrome atopique développe souvent plusieurs de ces allergies. L'atopie implique des phénomènes d'hypersensibilité, avec développement d'IgE, en présence de protéines courantes : pollen, allergènes alimentaires, poussière, etc.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec, a- privatif (sans) et topos- (lieu) : sans lieu, ou déplacé, mal placé, etc. comparer avec utopie.
 </t>
@@ -542,9 +556,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'atopie est une prédisposition à la sensibilisation aux allergènes environnementaux avec production d’immunoglobulines de type E (IgE)[1]. Les personnes atteintes ont une prédisposition génétique à avoir des allergies de type 1 (les allergies communes); elles ne passent pas par l'étape préalable de la sensibilisation, habituelle dans les cas d'allergie de type 1. La réponse allergique est, dans ces cas, plus rapide et se produit en présence de quantité infime d'allergène[2]. Bien que d'origine totalement différente, l'atopie est souvent confondue avec le phénomène de polysensibilisation à cause de la similitude des symptômes. Elle est en constante augmentation dans le monde et toucherait entre 5 et 25 % des enfants dans les pays développés. L'atopie est ainsi la première cause de l'asthme, puisqu'elle en est responsable dans environ 80 % des cas [réf. nécessaire].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'atopie est une prédisposition à la sensibilisation aux allergènes environnementaux avec production d’immunoglobulines de type E (IgE). Les personnes atteintes ont une prédisposition génétique à avoir des allergies de type 1 (les allergies communes); elles ne passent pas par l'étape préalable de la sensibilisation, habituelle dans les cas d'allergie de type 1. La réponse allergique est, dans ces cas, plus rapide et se produit en présence de quantité infime d'allergène. Bien que d'origine totalement différente, l'atopie est souvent confondue avec le phénomène de polysensibilisation à cause de la similitude des symptômes. Elle est en constante augmentation dans le monde et toucherait entre 5 et 25 % des enfants dans les pays développés. L'atopie est ainsi la première cause de l'asthme, puisqu'elle en est responsable dans environ 80 % des cas [réf. nécessaire].
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont similaires aux symptômes de l'allergie, et leur manifestation est souvent précoce (en général avant l’âge de deux ans, il est possible que cela commence même dès l'âge d'un mois), en commençant par une dermatite (la dermatite atopique), évoluant parfois avec l'âge pour entraîner de l'asthme puis des rhino-conjonctivites, ponctués occasionnellement par des épisodes aigus : aggravation de l'asthme, urticaire, œdème, choc anaphylactique (réaction allergique grave). L'évolution et la conservation des symptômes à l'âge adulte ne semble cependant concerner qu'une minorité des enfants malades, entre 10 et 15 % [réf. nécessaire].
 </t>
@@ -604,11 +622,13 @@
           <t>Causes : des liens complexes entre génétique et environnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que le caractère héréditaire du syndrome atopique ait été souvent souligné, l'environnement serait aussi un facteur de développement du syndrome, au-delà du simple contact avec l'allergène nécessaire au développement de toute réaction allergique (le développement de toute allergie requérant au préalable une sensibilisation à l'allergène en question). De façon générale, les allergologues concordent à souligner le caractère à la fois héréditaire et environnemental du développement de syndromes atopiques, la multiplicité des facteurs en jeu et leur importance relative faisant débat. Des auteurs indiquent par exemple que « la plus importante leçon [...] est qu'il n'y a pas un faible nombre, mais des milliers et millions de facteurs de risques distincts qui agissent en concordance dans la production du phénotype allergique »[3].
-Certaines études tendent ainsi à montrer que, paradoxalement, une hygiène excessive durant la petite enfance peut favoriser le développement de syndromes atopiques[4]. Une étude danoise observe ainsi une corrélation inverse entre l'importance de la flore intestinale lors de la petite-enfance et le développement d'allergies et de syndromes atopiques (excluant cependant l'asthme et la dermatite atopique, mais incluant la sensibilisation allergénique, la rhinite allergique et l'éosinophilie sanguine périphérique): plus la flore intestinale, donc le nombre de bactéries, est faible, plus les sujets observés étaient atteints d'allergies ou de syndromes atopiques avant leur sixième année [5]. Selon les auteurs, ceci pourrait expliquer pourquoi « beaucoup plus d'enfants nés par césarienne développent des allergies », ce mode d'accouchement conduisant à une moindre exposition à la flore intestinale maternelle[5]. L'étude évoque cependant d'autres études allant en sens inverse, le débat étant toujours d'actualité. Par ailleurs, elle pose l'hypothèse selon laquelle certaines bactéries pathologiques de la flore intestinale conduiraient à une moindre diversité de cette flore. Elle évoque aussi l'étude Copsac sur l'asthme[6], laquelle montre un lien entre la colonisation des voies respiratoires par des bactéries pathologiques et le développement de l'asthme avant l'âge de 5 ans.
-D'autres études se sont intéressées au régime alimentaire de la mère lors de la gestation, ou encore à l'abus d'antibiotiques ou d'antipyrétiques (médicaments contre la fièvre) lors de la première année de vie[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que le caractère héréditaire du syndrome atopique ait été souvent souligné, l'environnement serait aussi un facteur de développement du syndrome, au-delà du simple contact avec l'allergène nécessaire au développement de toute réaction allergique (le développement de toute allergie requérant au préalable une sensibilisation à l'allergène en question). De façon générale, les allergologues concordent à souligner le caractère à la fois héréditaire et environnemental du développement de syndromes atopiques, la multiplicité des facteurs en jeu et leur importance relative faisant débat. Des auteurs indiquent par exemple que « la plus importante leçon [...] est qu'il n'y a pas un faible nombre, mais des milliers et millions de facteurs de risques distincts qui agissent en concordance dans la production du phénotype allergique ».
+Certaines études tendent ainsi à montrer que, paradoxalement, une hygiène excessive durant la petite enfance peut favoriser le développement de syndromes atopiques. Une étude danoise observe ainsi une corrélation inverse entre l'importance de la flore intestinale lors de la petite-enfance et le développement d'allergies et de syndromes atopiques (excluant cependant l'asthme et la dermatite atopique, mais incluant la sensibilisation allergénique, la rhinite allergique et l'éosinophilie sanguine périphérique): plus la flore intestinale, donc le nombre de bactéries, est faible, plus les sujets observés étaient atteints d'allergies ou de syndromes atopiques avant leur sixième année . Selon les auteurs, ceci pourrait expliquer pourquoi « beaucoup plus d'enfants nés par césarienne développent des allergies », ce mode d'accouchement conduisant à une moindre exposition à la flore intestinale maternelle. L'étude évoque cependant d'autres études allant en sens inverse, le débat étant toujours d'actualité. Par ailleurs, elle pose l'hypothèse selon laquelle certaines bactéries pathologiques de la flore intestinale conduiraient à une moindre diversité de cette flore. Elle évoque aussi l'étude Copsac sur l'asthme, laquelle montre un lien entre la colonisation des voies respiratoires par des bactéries pathologiques et le développement de l'asthme avant l'âge de 5 ans.
+D'autres études se sont intéressées au régime alimentaire de la mère lors de la gestation, ou encore à l'abus d'antibiotiques ou d'antipyrétiques (médicaments contre la fièvre) lors de la première année de vie.
 Pour bien comprendre l'atopie et ses conséquences, il serait utile de faire l'analogie avec un autre contexte. Prenons l'exemple d'un habitant nordique ayant une peau blanche. Cette personne va habiter en Afrique et durant sa vie, sa peau surexposée au soleil va développer les différentes maladies de peau prévisibles (brulures répétées, kératose actinique cutanée, mélanome, épithélioma...). Ses enfants ayant la peau blanche le rejoignent et vivent dans les mêmes conditions et auront les mêmes pathologies qui vont se développer. Pourrait on dire que la peau blanche est une peau malade génétiquement? Evidemment non! Il s'agit ici d'une peau normale mais surexposée à un environnement naturellement inadapté. Il suffirait de protéger cette peau blanche et lui éviter cette surexposition et aucune maladie n'apparaitrait.
 Dans le cadre de l'atopie, ces personnes atopiques réagissent fortement à leur environnement, quel que soit l'élément soumis. Parmi ces éléments, certains vont faire réagir plus que d'autres, allant de la simple réaction banale et normale, comme pour toute autre personne non atopique, à la réaction forte de lutte contre cet élément rentrant en contact avec les interfaces (peau, muqueuse respiratoire et digestive). Les mastocytes cellules immunitaires siégeant en fort nombre au niveau de ces interfaces jouent un rôle important dans le mécanisme de l'atopie. De cette réaction immunitaire primaire vont découler plusieurs conséquences expliquant toute la symptomatologie et les caractéristiques locorégionales de chaque organe et de chaque zone d'interface. Parmi ces éléments de l'environnement il existe un très grand nombre de substances indésirables connues et provoquant une forte réaction immunitaire (notamment les substances histamino-libératrices). Tout comme pour la peau blanche qu'on protégerait contre le soleil, il suffirait de protéger ces personnes atopiques contre la sur-exposition aux substances nocives, irritantes et/ou histamino-libératrices.
 La peau de l'atopique est plus sèche, les constituants de base sont modifiés, les germes qui la colonisent sont différents, la sensibilité et la tolérance de cette peau atopique aux germes saprophytes et pathogènes ne sont pas les mêmes, la fréquence des infections par les staphylocoques et par les corynébactéries est plus élevée. L'observation de la flore des voies respiratoires et digestives montre des changements du microbiote basés sur les mêmes mécanismes. Il est évident d'affirmer que les modifications immunitaires entrainent le changement de microbiote et non l'inverse. C'est parce que ces atopiques ont un fonctionnement immunitaire différent que les flores qui les colonisent sont différentes. 
@@ -642,7 +662,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il repose essentiellement sur le diagnostic de dermatite atopique, le premier symptôme de l’atopie, qui est clinique (irritation et sécheresse de la peau, prurit, etc.) et anamnéstique (historique de la maladie et antécédents familiaux). La notion de chronicité et d’évolution à rechute étant prépondérante, cela rend difficile un diagnostic précoce certain. On peut y associer une prise de sang pour mettre en évidence une éosinophilie et une augmentation des IgE sériques, bien que de par la nature héréditaire de la maladie, la présence d'antécédents familiaux de symptômes similaires soit l'outil principal du diagnostic.
 Le diagnostic est facile cliniquement et se fondant sur un interrogatoire précis anamnestique. La biologie et éventuellement les biopsies pourraient contribuer mais les éléments apportés sont couteux, apparaissent tardivement et moins pathognomoniques que la clinique.
